--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/MixPanel_SDK.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/MixPanel_SDK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>class_name</t>
   </si>
@@ -40,17 +40,10 @@
     <t>labelAPI</t>
   </si>
   <si>
-    <t>com.mixpanel.android.mpmetrics.InAppNotification.Type</t>
-  </si>
-  <si>
     <t>com.mixpanel.android.mpmetrics.MixpanelAPI</t>
   </si>
   <si>
     <t>com.mixpanel.android.mpmetrics.MixpanelAPI.People</t>
-  </si>
-  <si>
-    <t>InApp Notifications in Mixpanel are either TAKEOVERs, that display full screen,
- or MINI notifications that appear and disappear on the margins of the screen.</t>
   </si>
   <si>
     <t>Core class for interacting with Mixpanel Analytics.
@@ -124,9 +117,6 @@
  </t>
   </si>
   <si>
-    <t>valueOf​(java.lang.String name)</t>
-  </si>
-  <si>
     <t>getAnonymousId()</t>
   </si>
   <si>
@@ -157,14 +147,6 @@
   </si>
   <si>
     <t>getPushRegistrationId()</t>
-  </si>
-  <si>
-    <t>withIdentity​(java.lang.String distinctId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Returns the enum constant of this type with the specified name.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -202,14 +184,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Return an instance of Mixpanel people with a temporary distinct id.
-</t>
-  </si>
-  <si>
-    <t>static InAppNotification.Type</t>
-  </si>
-  <si>
     <t>protected java.lang.String</t>
   </si>
   <si>
@@ -219,12 +193,6 @@
     <t>static MixpanelAPI</t>
   </si>
   <si>
-    <t>MixpanelAPI.People</t>
-  </si>
-  <si>
-    <t>Returns the enum constant of this type with the specified name.</t>
-  </si>
-  <si>
     <t>Returns the anonymoous id currently being used to uniquely identify the device and all with events sent using track(String, JSONObject) will have this id as a device id</t>
   </si>
   <si>
@@ -243,12 +211,6 @@
     <t>Retrieves current Firebase Cloud Messaging token.</t>
   </si>
   <si>
-    <t>Return an instance of Mixpanel people with a temporary distinct id.</t>
-  </si>
-  <si>
-    <t>{'the specified name'}</t>
-  </si>
-  <si>
     <t>{'the device', 'JSONObject', 'a device'}</t>
   </si>
   <si>
@@ -262,9 +224,6 @@
   </si>
   <si>
     <t>{'token', 'current Firebase Cloud Messaging'}</t>
-  </si>
-  <si>
-    <t>{'id.'}</t>
   </si>
 </sst>
 </file>
@@ -622,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,181 +618,181 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -841,103 +800,51 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
